--- a/sources/Latin_data.xlsx
+++ b/sources/Latin_data.xlsx
@@ -2227,7 +2227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
@@ -2251,7 +2251,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2534,8 +2533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2702,15 +2701,15 @@
       <c r="L3" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>543</v>
-      </c>
+      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="5"/>
+      <c r="S3" s="5" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
@@ -2747,15 +2746,15 @@
       <c r="L4" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>546</v>
-      </c>
+      <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
-      <c r="S4" s="5"/>
+      <c r="S4" s="5" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
@@ -2837,15 +2836,15 @@
       <c r="L6" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>549</v>
-      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="S6" s="5" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -2882,15 +2881,15 @@
       <c r="L7" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>551</v>
-      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="9"/>
+      <c r="S7" s="5" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
@@ -3195,7 +3194,7 @@
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="9"/>
+      <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -3234,15 +3233,15 @@
       <c r="L15" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>565</v>
-      </c>
+      <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="9"/>
+      <c r="S15" s="5" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
@@ -3285,7 +3284,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
+      <c r="S16" s="5"/>
     </row>
     <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
@@ -3453,15 +3452,15 @@
       <c r="L20" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M20" s="5" t="s">
-        <v>551</v>
-      </c>
+      <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="9"/>
+      <c r="S20" s="5" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
@@ -3543,15 +3542,15 @@
       <c r="L22" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="M22" s="5" t="s">
-        <v>575</v>
-      </c>
+      <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="9"/>
+      <c r="S22" s="5" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
@@ -3633,15 +3632,15 @@
       <c r="L24" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="M24" s="5" t="s">
-        <v>551</v>
-      </c>
+      <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="9"/>
+      <c r="S24" s="5" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
@@ -3680,15 +3679,15 @@
       <c r="L25" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M25" s="5" t="s">
-        <v>581</v>
-      </c>
+      <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="5"/>
+      <c r="S25" s="5" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="26" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
@@ -3899,15 +3898,15 @@
       <c r="L30" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="M30" s="5" t="s">
-        <v>589</v>
-      </c>
+      <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="9"/>
+      <c r="S30" s="5" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
@@ -4120,15 +4119,15 @@
       <c r="L35" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M35" s="5" t="s">
-        <v>551</v>
-      </c>
+      <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="5"/>
+      <c r="S35" s="5" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="36" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
@@ -4294,15 +4293,15 @@
       <c r="L39" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M39" s="5" t="s">
-        <v>599</v>
-      </c>
+      <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="5"/>
+      <c r="S39" s="5" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="40" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
@@ -4599,15 +4598,15 @@
       <c r="L46" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M46" s="5" t="s">
-        <v>551</v>
-      </c>
+      <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
-      <c r="S46" s="5"/>
+      <c r="S46" s="5" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="47" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
@@ -4644,15 +4643,15 @@
       <c r="L47" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M47" s="5" t="s">
-        <v>608</v>
-      </c>
+      <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="5"/>
+      <c r="S47" s="5" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
@@ -4732,15 +4731,15 @@
       <c r="L49" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M49" s="5" t="s">
-        <v>611</v>
-      </c>
+      <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-      <c r="S49" s="5"/>
+      <c r="S49" s="5" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="50" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
@@ -4865,15 +4864,15 @@
       <c r="L52" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="M52" s="5" t="s">
-        <v>616</v>
-      </c>
+      <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="5"/>
+      <c r="S52" s="5" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
@@ -4998,15 +4997,15 @@
       <c r="L55" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M55" s="5" t="s">
-        <v>616</v>
-      </c>
+      <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="5"/>
+      <c r="S55" s="5" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="56" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
@@ -5221,15 +5220,15 @@
       <c r="L60" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="M60" s="5" t="s">
-        <v>625</v>
-      </c>
+      <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="5"/>
+      <c r="S60" s="5" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
@@ -5837,15 +5836,15 @@
       <c r="L74" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="M74" s="5" t="s">
-        <v>616</v>
-      </c>
+      <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
-      <c r="S74" s="5"/>
+      <c r="S74" s="5" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="75" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
@@ -5968,15 +5967,15 @@
       <c r="L77" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M77" s="5" t="s">
-        <v>645</v>
-      </c>
+      <c r="M77" s="5"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
-      <c r="S77" s="5"/>
+      <c r="S77" s="5" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="78" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
@@ -6140,15 +6139,15 @@
         <v>649</v>
       </c>
       <c r="L81" s="5"/>
-      <c r="M81" s="5" t="s">
-        <v>650</v>
-      </c>
+      <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
-      <c r="S81" s="5"/>
+      <c r="S81" s="5" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="82" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
@@ -6232,15 +6231,15 @@
       <c r="L83" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M83" s="5" t="s">
-        <v>653</v>
-      </c>
+      <c r="M83" s="5"/>
       <c r="N83" s="5"/>
       <c r="O83" s="5"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
-      <c r="S83" s="5"/>
+      <c r="S83" s="5" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="84" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
@@ -6322,15 +6321,15 @@
       <c r="L85" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="M85" s="5" t="s">
-        <v>551</v>
-      </c>
+      <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
-      <c r="S85" s="5"/>
+      <c r="S85" s="5" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="86" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
@@ -6539,15 +6538,15 @@
       <c r="L90" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M90" s="5" t="s">
-        <v>551</v>
-      </c>
+      <c r="M90" s="5"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
-      <c r="S90" s="5"/>
+      <c r="S90" s="5" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="91" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
@@ -6629,15 +6628,15 @@
       <c r="L92" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M92" s="5" t="s">
-        <v>663</v>
-      </c>
+      <c r="M92" s="5"/>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
-      <c r="S92" s="5"/>
+      <c r="S92" s="5" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="93" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
@@ -6719,15 +6718,15 @@
       <c r="L94" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M94" s="5" t="s">
-        <v>665</v>
-      </c>
+      <c r="M94" s="5"/>
       <c r="N94" s="5"/>
       <c r="O94" s="5"/>
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
-      <c r="S94" s="5"/>
+      <c r="S94" s="5" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="95" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
@@ -6766,15 +6765,15 @@
       <c r="L95" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="M95" s="5" t="s">
-        <v>667</v>
-      </c>
+      <c r="M95" s="5"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
-      <c r="S95" s="5"/>
+      <c r="S95" s="5" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="96" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
@@ -6856,15 +6855,15 @@
       <c r="L97" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M97" s="5" t="s">
-        <v>670</v>
-      </c>
+      <c r="M97" s="5"/>
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
-      <c r="S97" s="5"/>
+      <c r="S97" s="5" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="98" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
@@ -6901,15 +6900,15 @@
       <c r="L98" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M98" s="5" t="s">
-        <v>671</v>
-      </c>
+      <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="5"/>
+      <c r="S98" s="5" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="99" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
@@ -6948,15 +6947,15 @@
       <c r="L99" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M99" s="5" t="s">
-        <v>551</v>
-      </c>
+      <c r="M99" s="5"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="5"/>
+      <c r="S99" s="5" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="100" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
@@ -6995,15 +6994,15 @@
       <c r="L100" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="M100" s="5" t="s">
-        <v>674</v>
-      </c>
+      <c r="M100" s="5"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="5"/>
+      <c r="S100" s="5" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="101" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
@@ -7087,15 +7086,15 @@
       <c r="L102" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="M102" s="5" t="s">
-        <v>551</v>
-      </c>
+      <c r="M102" s="5"/>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
-      <c r="S102" s="5"/>
+      <c r="S102" s="5" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="103" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
@@ -7132,15 +7131,15 @@
       <c r="L103" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M103" s="5" t="s">
-        <v>678</v>
-      </c>
+      <c r="M103" s="5"/>
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
-      <c r="S103" s="5"/>
+      <c r="S103" s="5" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="104" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
@@ -7351,15 +7350,15 @@
       <c r="L108" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M108" s="5" t="s">
-        <v>551</v>
-      </c>
+      <c r="M108" s="5"/>
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
-      <c r="S108" s="5"/>
+      <c r="S108" s="5" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="109" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
@@ -7445,7 +7444,7 @@
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
+      <c r="S110" s="5"/>
     </row>
     <row r="111" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
@@ -7482,15 +7481,15 @@
       <c r="L111" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M111" s="5" t="s">
-        <v>551</v>
-      </c>
+      <c r="M111" s="5"/>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
+      <c r="S111" s="5" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
@@ -7533,7 +7532,7 @@
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
+      <c r="S112" s="5"/>
     </row>
     <row r="113" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
@@ -7572,15 +7571,15 @@
       <c r="L113" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M113" s="5" t="s">
-        <v>581</v>
-      </c>
+      <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
+      <c r="S113" s="5" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="114" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
@@ -7623,7 +7622,7 @@
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
+      <c r="S114" s="5"/>
     </row>
     <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
@@ -7668,7 +7667,7 @@
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
+      <c r="S115" s="5"/>
     </row>
     <row r="116" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
@@ -7713,7 +7712,7 @@
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
+      <c r="S116" s="5"/>
     </row>
     <row r="117" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
@@ -7758,7 +7757,7 @@
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
+      <c r="S117" s="5"/>
     </row>
     <row r="118" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
@@ -7797,15 +7796,15 @@
       <c r="L118" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M118" s="5" t="s">
-        <v>696</v>
-      </c>
+      <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
+      <c r="S118" s="5" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
@@ -7842,15 +7841,15 @@
       <c r="L119" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M119" s="5" t="s">
-        <v>698</v>
-      </c>
+      <c r="M119" s="5"/>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
-      <c r="S119" s="5"/>
+      <c r="S119" s="5" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="120" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
@@ -7887,15 +7886,15 @@
       <c r="L120" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M120" s="5" t="s">
-        <v>699</v>
-      </c>
+      <c r="M120" s="5"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
-      <c r="S120" s="5"/>
+      <c r="S120" s="5" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="121" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
@@ -7934,15 +7933,15 @@
       <c r="L121" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M121" s="5" t="s">
-        <v>551</v>
-      </c>
+      <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
-      <c r="S121" s="5"/>
+      <c r="S121" s="5" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="122" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
@@ -8024,15 +8023,15 @@
       <c r="L123" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M123" s="5" t="s">
-        <v>702</v>
-      </c>
+      <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="5"/>
+      <c r="S123" s="5" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
@@ -8071,15 +8070,15 @@
       <c r="L124" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="M124" s="5" t="s">
-        <v>581</v>
-      </c>
+      <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
-      <c r="S124" s="5"/>
+      <c r="S124" s="5" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="125" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
@@ -8159,15 +8158,15 @@
       <c r="L126" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M126" s="5" t="s">
-        <v>705</v>
-      </c>
+      <c r="M126" s="5"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="5"/>
+      <c r="S126" s="5" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
@@ -8380,15 +8379,15 @@
         <v>649</v>
       </c>
       <c r="L131" s="5"/>
-      <c r="M131" s="5" t="s">
-        <v>711</v>
-      </c>
+      <c r="M131" s="5"/>
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
-      <c r="S131" s="5"/>
+      <c r="S131" s="5" t="s">
+        <v>711</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S131"/>

--- a/sources/Latin_data.xlsx
+++ b/sources/Latin_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="713">
   <si>
     <t>language_no</t>
   </si>
@@ -2158,6 +2158,9 @@
   </si>
   <si>
     <t>DEP (Verbum deponens). Не найден пример со вторым участником. C pudet (ACC+GEN) сложно: он обозначает именно стыд, сожаление о собственном поступке. VERCUNDOR вроде бы бы ближе к стимулу. Инна ищет еще</t>
+  </si>
+  <si>
+    <t>ACC</t>
   </si>
 </sst>
 </file>
@@ -2533,8 +2536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M131"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2737,9 +2740,11 @@
         <v>544</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J4" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K4" s="5" t="s">
         <v>545</v>
       </c>
@@ -2782,9 +2787,11 @@
         <v>547</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J5" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K5" s="5" t="s">
         <v>545</v>
       </c>
@@ -2872,9 +2879,11 @@
         <v>550</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J7" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K7" s="5" t="s">
         <v>545</v>
       </c>
@@ -2962,9 +2971,11 @@
         <v>554</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K9" s="5" t="s">
         <v>545</v>
       </c>
@@ -3005,9 +3016,11 @@
         <v>555</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K10" s="5" t="s">
         <v>545</v>
       </c>
@@ -3048,9 +3061,11 @@
         <v>556</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J11" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K11" s="5" t="s">
         <v>545</v>
       </c>
@@ -3136,9 +3151,11 @@
         <v>560</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J13" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K13" s="5" t="s">
         <v>545</v>
       </c>
@@ -3179,9 +3196,11 @@
         <v>561</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J14" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K14" s="5" t="s">
         <v>545</v>
       </c>
@@ -3269,9 +3288,11 @@
         <v>566</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K16" s="5" t="s">
         <v>545</v>
       </c>
@@ -3312,9 +3333,11 @@
         <v>567</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K17" s="5" t="s">
         <v>545</v>
       </c>
@@ -3400,9 +3423,11 @@
         <v>569</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J19" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K19" s="5" t="s">
         <v>545</v>
       </c>
@@ -3443,9 +3468,11 @@
         <v>570</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J20" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K20" s="5" t="s">
         <v>545</v>
       </c>
@@ -3488,9 +3515,11 @@
         <v>571</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J21" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K21" s="5" t="s">
         <v>545</v>
       </c>
@@ -3578,9 +3607,11 @@
         <v>576</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J23" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K23" s="5" t="s">
         <v>545</v>
       </c>
@@ -3715,9 +3746,11 @@
         <v>582</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J26" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K26" s="5" t="s">
         <v>545</v>
       </c>
@@ -3758,9 +3791,11 @@
         <v>583</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K27" s="5" t="s">
         <v>545</v>
       </c>
@@ -3801,9 +3836,11 @@
         <v>584</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K28" s="5" t="s">
         <v>545</v>
       </c>
@@ -3844,9 +3881,11 @@
         <v>585</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J29" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K29" s="5" t="s">
         <v>545</v>
       </c>
@@ -3979,9 +4018,11 @@
         <v>591</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J32" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K32" s="5" t="s">
         <v>545</v>
       </c>
@@ -4022,9 +4063,11 @@
         <v>592</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J33" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K33" s="5" t="s">
         <v>545</v>
       </c>
@@ -4065,9 +4108,11 @@
         <v>593</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J34" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K34" s="5" t="s">
         <v>545</v>
       </c>
@@ -4155,9 +4200,11 @@
         <v>595</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J36" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K36" s="5" t="s">
         <v>545</v>
       </c>
@@ -4198,9 +4245,11 @@
         <v>596</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J37" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K37" s="5" t="s">
         <v>545</v>
       </c>
@@ -4241,9 +4290,11 @@
         <v>597</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J38" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K38" s="5" t="s">
         <v>545</v>
       </c>
@@ -4284,9 +4335,11 @@
         <v>598</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J39" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K39" s="5" t="s">
         <v>545</v>
       </c>
@@ -4329,9 +4382,11 @@
         <v>600</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J40" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K40" s="5" t="s">
         <v>545</v>
       </c>
@@ -4372,9 +4427,11 @@
         <v>601</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J41" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K41" s="5" t="s">
         <v>545</v>
       </c>
@@ -4415,9 +4472,11 @@
         <v>602</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J42" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K42" s="5" t="s">
         <v>545</v>
       </c>
@@ -4458,9 +4517,11 @@
         <v>603</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J43" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K43" s="5" t="s">
         <v>545</v>
       </c>
@@ -4501,9 +4562,11 @@
         <v>604</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J44" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K44" s="5" t="s">
         <v>545</v>
       </c>
@@ -4544,9 +4607,11 @@
         <v>605</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J45" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K45" s="5" t="s">
         <v>545</v>
       </c>
@@ -4634,9 +4699,11 @@
         <v>607</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J47" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K47" s="5" t="s">
         <v>545</v>
       </c>
@@ -4679,9 +4746,11 @@
         <v>609</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J48" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K48" s="5" t="s">
         <v>545</v>
       </c>
@@ -4722,9 +4791,11 @@
         <v>610</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J49" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K49" s="5" t="s">
         <v>545</v>
       </c>
@@ -4767,9 +4838,11 @@
         <v>612</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J50" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K50" s="5" t="s">
         <v>545</v>
       </c>
@@ -4810,9 +4883,11 @@
         <v>613</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J51" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K51" s="5" t="s">
         <v>545</v>
       </c>
@@ -4900,9 +4975,11 @@
         <v>617</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J53" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K53" s="5" t="s">
         <v>545</v>
       </c>
@@ -4943,9 +5020,11 @@
         <v>618</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J54" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K54" s="5" t="s">
         <v>545</v>
       </c>
@@ -5033,9 +5112,11 @@
         <v>620</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J56" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K56" s="5" t="s">
         <v>545</v>
       </c>
@@ -5121,9 +5202,11 @@
         <v>622</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J58" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K58" s="5" t="s">
         <v>545</v>
       </c>
@@ -5256,9 +5339,11 @@
         <v>626</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J61" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K61" s="5" t="s">
         <v>545</v>
       </c>
@@ -5389,9 +5474,11 @@
         <v>629</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J64" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K64" s="5" t="s">
         <v>545</v>
       </c>
@@ -5522,9 +5609,11 @@
         <v>634</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J67" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K67" s="5" t="s">
         <v>545</v>
       </c>
@@ -5610,9 +5699,11 @@
         <v>636</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J69" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K69" s="5" t="s">
         <v>545</v>
       </c>
@@ -5653,9 +5744,11 @@
         <v>637</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J70" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K70" s="5" t="s">
         <v>545</v>
       </c>
@@ -5696,9 +5789,11 @@
         <v>638</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J71" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K71" s="5" t="s">
         <v>545</v>
       </c>
@@ -5739,9 +5834,11 @@
         <v>639</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J72" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K72" s="5" t="s">
         <v>545</v>
       </c>
@@ -5782,9 +5879,11 @@
         <v>640</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J73" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K73" s="5" t="s">
         <v>545</v>
       </c>
@@ -5872,9 +5971,11 @@
         <v>642</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J75" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K75" s="5" t="s">
         <v>545</v>
       </c>
@@ -5915,9 +6016,11 @@
         <v>643</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J76" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K76" s="5" t="s">
         <v>545</v>
       </c>
@@ -5958,9 +6061,11 @@
         <v>644</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J77" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K77" s="5" t="s">
         <v>545</v>
       </c>
@@ -6003,9 +6108,11 @@
         <v>646</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J78" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K78" s="5" t="s">
         <v>545</v>
       </c>
@@ -6046,9 +6153,11 @@
         <v>647</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J79" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K79" s="5" t="s">
         <v>545</v>
       </c>
@@ -6089,9 +6198,11 @@
         <v>648</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J80" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K80" s="5" t="s">
         <v>545</v>
       </c>
@@ -6134,7 +6245,9 @@
       <c r="I81" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="J81" s="5"/>
+      <c r="J81" s="5" t="s">
+        <v>649</v>
+      </c>
       <c r="K81" s="5" t="s">
         <v>649</v>
       </c>
@@ -6267,9 +6380,11 @@
         <v>654</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J84" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K84" s="5" t="s">
         <v>545</v>
       </c>
@@ -6357,9 +6472,11 @@
         <v>656</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J86" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K86" s="5" t="s">
         <v>545</v>
       </c>
@@ -6400,9 +6517,11 @@
         <v>657</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J87" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K87" s="5" t="s">
         <v>545</v>
       </c>
@@ -6443,9 +6562,11 @@
         <v>658</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J88" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K88" s="5" t="s">
         <v>545</v>
       </c>
@@ -6486,9 +6607,11 @@
         <v>659</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J89" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K89" s="5" t="s">
         <v>545</v>
       </c>
@@ -6529,9 +6652,11 @@
         <v>660</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J90" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K90" s="5" t="s">
         <v>545</v>
       </c>
@@ -6619,9 +6744,11 @@
         <v>662</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J92" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K92" s="5" t="s">
         <v>545</v>
       </c>
@@ -6709,9 +6836,11 @@
         <v>662</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J94" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K94" s="5" t="s">
         <v>545</v>
       </c>
@@ -6801,9 +6930,11 @@
         <v>668</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J96" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K96" s="5" t="s">
         <v>545</v>
       </c>
@@ -6891,9 +7022,11 @@
         <v>610</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J98" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K98" s="5" t="s">
         <v>545</v>
       </c>
@@ -7122,9 +7255,11 @@
         <v>677</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J103" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K103" s="5" t="s">
         <v>545</v>
       </c>
@@ -7167,9 +7302,11 @@
         <v>679</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J104" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K104" s="5" t="s">
         <v>545</v>
       </c>
@@ -7255,9 +7392,11 @@
         <v>683</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J106" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K106" s="5" t="s">
         <v>545</v>
       </c>
@@ -7298,9 +7437,11 @@
         <v>684</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J107" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K107" s="5" t="s">
         <v>545</v>
       </c>
@@ -7341,9 +7482,11 @@
         <v>685</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J108" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K108" s="5" t="s">
         <v>545</v>
       </c>
@@ -7386,9 +7529,11 @@
         <v>686</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J109" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K109" s="5" t="s">
         <v>545</v>
       </c>
@@ -7429,9 +7574,11 @@
         <v>687</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J110" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K110" s="5" t="s">
         <v>545</v>
       </c>
@@ -7472,9 +7619,11 @@
         <v>688</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J111" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K111" s="5" t="s">
         <v>545</v>
       </c>
@@ -7517,9 +7666,11 @@
         <v>689</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J112" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K112" s="5" t="s">
         <v>545</v>
       </c>
@@ -7607,9 +7758,11 @@
         <v>691</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J114" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K114" s="5" t="s">
         <v>545</v>
       </c>
@@ -7832,9 +7985,11 @@
         <v>697</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J119" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K119" s="5" t="s">
         <v>545</v>
       </c>
@@ -7877,9 +8032,11 @@
         <v>607</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J120" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K120" s="5" t="s">
         <v>545</v>
       </c>
@@ -7969,9 +8126,11 @@
         <v>701</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J122" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K122" s="5" t="s">
         <v>545</v>
       </c>
@@ -8106,9 +8265,11 @@
         <v>704</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J125" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K125" s="5" t="s">
         <v>545</v>
       </c>
@@ -8149,9 +8310,11 @@
         <v>697</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J126" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K126" s="5" t="s">
         <v>545</v>
       </c>
@@ -8194,9 +8357,11 @@
         <v>706</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="J127" s="5"/>
+        <v>538</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>712</v>
+      </c>
       <c r="K127" s="5" t="s">
         <v>545</v>
       </c>
@@ -8374,7 +8539,9 @@
       <c r="I131" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="J131" s="5"/>
+      <c r="J131" s="5" t="s">
+        <v>649</v>
+      </c>
       <c r="K131" s="5" t="s">
         <v>649</v>
       </c>
